--- a/results/states-20200318.xlsx
+++ b/results/states-20200318.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/gitcode/covid-compute/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EC91AD88-473E-CA4C-8863-1B31DFC3C2A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31476057-902B-B14C-A3CF-6DAF6DFDB004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19180" yWindow="5840" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="6760" yWindow="1460" windowWidth="26380" windowHeight="24180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="states-20200318" sheetId="1" r:id="rId1"/>
+    <sheet name="states-20200321" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
   <si>
     <t>state</t>
   </si>
@@ -303,13 +304,16 @@
       <t xml:space="preserve"> is percent change for the prev 3 days (4-6 days ago) averaged </t>
     </r>
   </si>
+  <si>
+    <t>COVID-19 State Data - 03-21-2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -812,7 +816,7 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -833,7 +837,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1194,13 +1198,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2485,4 +2489,1301 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="69" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D076DB6B-4288-AE40-A5EF-7DDE038DE323}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>16.403638873890099</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>83</v>
+      </c>
+      <c r="C11" s="2">
+        <v>16.9277724581063</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.31308063916759499</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.92049808429118696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>96</v>
+      </c>
+      <c r="C12" s="2">
+        <v>31.8109897028489</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.64239165852069002</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.23611111111111099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>78</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10.716174292804601</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.19301994301994299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>1177</v>
+      </c>
+      <c r="C14" s="2">
+        <v>29.788250587672501</v>
+      </c>
+      <c r="D14">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.58209835472936999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.193306304127838</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.27119824826618899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>363</v>
+      </c>
+      <c r="C15" s="2">
+        <v>63.034665940581398</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.69459686986866498</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.32196803222937198</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.172801249590607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>194</v>
+      </c>
+      <c r="C16" s="2">
+        <v>54.413571754531901</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.84144698589482403</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.51945369342705605</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.53585858585858503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2">
+        <v>100.602338791836</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.41693434918079</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.491471163245356</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2">
+        <v>39.023829182430198</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.344371345029239</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.43650793650793601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>563</v>
+      </c>
+      <c r="C19" s="2">
+        <v>26.2131899650321</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.46559840079985998</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.37728302849581602</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.41817745626337899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>420</v>
+      </c>
+      <c r="C20" s="2">
+        <v>39.5576214680341</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.22440256924867</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.42287979601761999</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.30961126415671802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2">
+        <v>18.363241874971699</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.38928571428571401</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.365079365079365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>14.262758037064099</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.26694607241833601</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.112200435729847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2">
+        <v>12.8696744028331</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.47937710437710401</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>585</v>
+      </c>
+      <c r="C24" s="2">
+        <v>46.165424843043397</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.39457628070977302</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.66580179196659195</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.371830197132616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>86</v>
+      </c>
+      <c r="C25" s="2">
+        <v>12.7743913262477</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.29707886805227202</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.42393162393162398</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.233333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2">
+        <v>15.1030750547314</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.34325170578935099</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.39433551198257</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.33712121212121199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10.5200179153666</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.44766033682411399</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.22636739303405901</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.23888888888888801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>538</v>
+      </c>
+      <c r="C28" s="2">
+        <v>115.72893959164399</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3.0115337440204901</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.40298843272717599</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.37250004897063699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>413</v>
+      </c>
+      <c r="C29" s="2">
+        <v>59.428710225752802</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.143895182144679</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.25457783247557197</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.165408098022714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>149</v>
+      </c>
+      <c r="C30" s="2">
+        <v>24.645697423614799</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.16540736525916</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.356004520188137</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.32514462163852398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2">
+        <v>41.660095282589303</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.20917277167277101</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1.43300653594771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>552</v>
+      </c>
+      <c r="C32" s="2">
+        <v>55.272644837109397</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.300394808897333</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1.31790469108122</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.38415856680007598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>115</v>
+      </c>
+      <c r="C33" s="2">
+        <v>20.3914014247738</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.243770773546054</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.44021164021164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>53</v>
+      </c>
+      <c r="C34" s="2">
+        <v>8.6355391867733502</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.32586940327446601</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.68942109264689899</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.42777777777777698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>80</v>
+      </c>
+      <c r="C35" s="2">
+        <v>26.8803746049004</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.33600468256125599</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.56321195144724501</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.52735042735042703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2">
+        <v>14.034720026048401</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.19528619528619501</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.22857142857142801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>172</v>
+      </c>
+      <c r="C37" s="2">
+        <v>16.399563542778601</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.41642228029423101</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.40357522594364698</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2">
+        <v>24.9323545853224</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1.0185185185185099</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2">
+        <v>19.1272988945455</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.209017515051997</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.146591970121381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <v>44</v>
+      </c>
+      <c r="C40" s="2">
+        <v>32.359817637718599</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.407239819004524</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.44383394383394298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>890</v>
+      </c>
+      <c r="C41" s="2">
+        <v>100.20051361207</v>
+      </c>
+      <c r="D41">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.2384333143064901</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.65949571122350403</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.578872128561569</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42">
+        <v>43</v>
+      </c>
+      <c r="C42" s="2">
+        <v>20.507156282176499</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.25010351966873701</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.320211161387632</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <v>114</v>
+      </c>
+      <c r="C43" s="2">
+        <v>37.011112424175899</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.324658880913823</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.30313852813852799</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.42076719576719501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44">
+        <v>8310</v>
+      </c>
+      <c r="C44" s="2">
+        <v>427.17114876808398</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2.1589877555065602</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.72057139520801095</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.49318106679949097</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <v>173</v>
+      </c>
+      <c r="C45" s="2">
+        <v>14.8001129257171</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.171099571395573</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.37369484412994602</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.37147609147609101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2">
+        <v>12.383209278005801</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.25271855669399601</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.476475279106858</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.69285714285714195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47">
+        <v>114</v>
+      </c>
+      <c r="C47" s="2">
+        <v>27.0287123165811</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.71128190306792405</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.206625074272133</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.30021367521367498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48">
+        <v>303</v>
+      </c>
+      <c r="C48" s="2">
+        <v>23.6681971840469</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>7.8112861993554203E-2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.39442660048178702</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.34182248012035199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4.3836385076340996</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.22222222222222199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50">
+        <v>54</v>
+      </c>
+      <c r="C50" s="2">
+        <v>50.974124967787098</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.33179622310057</v>
+      </c>
+      <c r="G50" s="3">
+        <v>4.84126984126984E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51">
+        <v>126</v>
+      </c>
+      <c r="C51" s="2">
+        <v>24.472130322251299</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.19422325652580399</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.426319936958234</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.358832687780056</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52">
+        <v>14</v>
+      </c>
+      <c r="C52" s="2">
+        <v>15.8253067000957</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1.13037905000683</v>
+      </c>
+      <c r="F52" s="3">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G52" s="3">
+        <v>7.0370370370370403E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53">
+        <v>233</v>
+      </c>
+      <c r="C53" s="2">
+        <v>34.098356049472699</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.50997388972072499</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.32505341880341798</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <v>394</v>
+      </c>
+      <c r="C54" s="2">
+        <v>13.5881368805452</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.172438285286106</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.53033402050742995</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.24594369911707301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55">
+        <v>78</v>
+      </c>
+      <c r="C55" s="2">
+        <v>24.329701137694201</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.18120915032679699</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.833516483516483</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56">
+        <v>122</v>
+      </c>
+      <c r="C56" s="2">
+        <v>14.2932140388885</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.23431498424407399</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.22243041646026701</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.184598934424718</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57">
+        <v>29</v>
+      </c>
+      <c r="C57" s="2">
+        <v>46.475178248334501</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3.2051847067816901</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.346801346801346</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0.36666666666666597</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58">
+        <v>1524</v>
+      </c>
+      <c r="C58" s="2">
+        <v>200.13413189128099</v>
+      </c>
+      <c r="D58">
+        <v>83</v>
+      </c>
+      <c r="E58" s="2">
+        <v>10.899693534761401</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.13564643135920099</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.240100386224747</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59">
+        <v>207</v>
+      </c>
+      <c r="C59" s="2">
+        <v>35.552141939264502</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.51524843390238495</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0.43597514659860798</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.39528335960073502</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3.9061083163836101</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1.1666666666666601</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61">
+        <v>19</v>
+      </c>
+      <c r="C61" s="2">
+        <v>32.828863136469501</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0.206397306397306</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1.05555555555555</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62">
+        <v>19011</v>
+      </c>
+      <c r="C62" s="2">
+        <v>57.703594709036501</v>
+      </c>
+      <c r="D62">
+        <v>244</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.74060686492056804</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0.45877356312023099</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.33717331045013299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="69" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/results/states-20200318.xlsx
+++ b/results/states-20200318.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/gitcode/covid-compute/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31476057-902B-B14C-A3CF-6DAF6DFDB004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC3B9F3-2A2A-1142-9BC9-B10A479CDB45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6760" yWindow="1460" windowWidth="26380" windowHeight="24180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6760" yWindow="1460" windowWidth="26380" windowHeight="24180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="states-20200318" sheetId="1" r:id="rId1"/>
     <sheet name="states-20200321" sheetId="2" r:id="rId2"/>
+    <sheet name="states-20200324" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="74">
   <si>
     <t>state</t>
   </si>
@@ -307,13 +308,72 @@
   <si>
     <t>COVID-19 State Data - 03-21-2020</t>
   </si>
+  <si>
+    <t>COVID-19 State Data - 8pm ET, 2020-03-24</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the percent change for each of the last 2 days averaged together</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%change_prev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is percent change for the prev 2 days (3-4 days ago) averaged </t>
+    </r>
+  </si>
+  <si>
+    <t>US population</t>
+  </si>
+  <si>
+    <t>NY population</t>
+  </si>
+  <si>
+    <t>NJ population</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -813,7 +873,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -843,6 +903,7 @@
     <xf numFmtId="9" fontId="16" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -2498,7 +2559,7 @@
   </sheetPr>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -3786,4 +3847,1316 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="69" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D0E2CC-1B2D-6E41-8CCD-5BA4C6298B48}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>28.7063680293078</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.32499999999999901</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.41666666666666602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>138</v>
+      </c>
+      <c r="C11" s="2">
+        <v>28.144971074923699</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.31587418375793203</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.379877369007803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>165</v>
+      </c>
+      <c r="C12" s="2">
+        <v>54.675138551771497</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.31164617486338703</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.71358748778103598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>152</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20.882801185978199</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.27477369981550298</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.400478053020425</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>1642</v>
+      </c>
+      <c r="C14" s="2">
+        <v>41.556760802853297</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.75925872356004798</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.181345410694219</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.25199384014591097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>476</v>
+      </c>
+      <c r="C15" s="2">
+        <v>82.657027514371194</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.04189530480299</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.14744649290103801</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.40795204834405802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>223</v>
+      </c>
+      <c r="C16" s="2">
+        <v>62.547559284848496</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.40241164315804</v>
+      </c>
+      <c r="F16" s="15">
+        <v>7.4742268041237001E-2</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.77918054014058402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2">
+        <v>144.527303616441</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.8338686983615902</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.20459118346442201</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.53266129032258003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2">
+        <v>48.2663150414268</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.114327485380116</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.42280701754385902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>830</v>
+      </c>
+      <c r="C19" s="2">
+        <v>38.644667266388403</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.60527792103981903</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.21499958222938501</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.33907269089187198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>600</v>
+      </c>
+      <c r="C20" s="2">
+        <v>56.510887811477403</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.16625069943996</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.19528740490278901</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.45281284471136102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2">
+        <v>33.901369615332399</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0.36018711018711003</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0.38392857142857101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>90</v>
+      </c>
+      <c r="C22" s="2">
+        <v>28.525516074128301</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0.41732026143790801</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0.26998432601880801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2">
+        <v>23.501144561695199</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0.36594202898550698</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0.65656565656565602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>1049</v>
+      </c>
+      <c r="C24" s="2">
+        <v>82.782103692910397</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.71023730527759099</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0.34013688834405897</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0.99559709788777695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>201</v>
+      </c>
+      <c r="C25" s="2">
+        <v>29.856426239253299</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.89123660415681605</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.52934229651162701</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0.485897435897435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2">
+        <v>21.968109170518499</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.68650341157870298</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.209130781499202</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0.591503267973856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>99</v>
+      </c>
+      <c r="C27" s="2">
+        <v>22.159186672793599</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.67149050523617104</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0.49449743213499597</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0.32032032032031998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>837</v>
+      </c>
+      <c r="C28" s="2">
+        <v>180.04669598179601</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4.3021910628864104</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0.25906491278238403</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0.44887040419280499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>646</v>
+      </c>
+      <c r="C29" s="2">
+        <v>92.956287665463194</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.719475910723399</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0.250831315577078</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0.38186674871335802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>244</v>
+      </c>
+      <c r="C30" s="2">
+        <v>40.359397123235098</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.49622209577748</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0.27977535904301498</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0.32567344694887301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>89</v>
+      </c>
+      <c r="C31" s="2">
+        <v>66.2097942884009</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0.26071428571428501</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0.15750915750915701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>1037</v>
+      </c>
+      <c r="C32" s="2">
+        <v>103.836472275511</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.90118442669200105</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0.371763039799897</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1.8383954981602999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>169</v>
+      </c>
+      <c r="C33" s="2">
+        <v>29.966494267710999</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.17731653412846701</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0.21231884057971001</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0.22398949365241499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34" s="2">
+        <v>16.293470163723299</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.48880410491169901</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0.37378888322284498</v>
+      </c>
+      <c r="G34" s="15">
+        <v>0.71594982078852998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>207</v>
+      </c>
+      <c r="C35" s="2">
+        <v>69.552969290180002</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.33600468256125599</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0.61428571428571399</v>
+      </c>
+      <c r="G35" s="15">
+        <v>0.53529411764705803</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>31</v>
+      </c>
+      <c r="C36" s="2">
+        <v>29.005088053833401</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0.43809523809523798</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0.18181818181818099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>302</v>
+      </c>
+      <c r="C37" s="2">
+        <v>28.794582499529898</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0.33230306094310103</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0.57775842044134695</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2">
+        <v>36.742417283633003</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="15">
+        <v>0.23684210526315699</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1.0277777777777699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>51</v>
+      </c>
+      <c r="C39" s="2">
+        <v>26.364655233022098</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0.18456614509246</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0.242097701149425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <v>65</v>
+      </c>
+      <c r="C40" s="2">
+        <v>47.804276055720599</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15">
+        <v>0.21590909090909</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0.34615384615384598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>1914</v>
+      </c>
+      <c r="C41" s="2">
+        <v>215.48739668932899</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2.2516969351027099</v>
+      </c>
+      <c r="F41" s="15">
+        <v>0.46668120200164198</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0.98924356683525605</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42">
+        <v>57</v>
+      </c>
+      <c r="C42" s="2">
+        <v>27.1839048391642</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0.16279069767441801</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0.37515527950310501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <v>190</v>
+      </c>
+      <c r="C43" s="2">
+        <v>61.685187373626498</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.649317761827647</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0.29620246267843497</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0.46363636363636301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44">
+        <v>15793</v>
+      </c>
+      <c r="C44" s="2">
+        <v>811.83080054083598</v>
+      </c>
+      <c r="D44">
+        <v>117</v>
+      </c>
+      <c r="E44" s="2">
+        <v>6.0143230331968498</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0.37891097635291698</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0.84961441989290698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <v>355</v>
+      </c>
+      <c r="C45" s="2">
+        <v>30.370173922714301</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.25664935709336001</v>
+      </c>
+      <c r="F45" s="15">
+        <v>0.43248881223195901</v>
+      </c>
+      <c r="G45" s="15">
+        <v>0.4187512214188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <v>67</v>
+      </c>
+      <c r="C46" s="2">
+        <v>16.932143298497699</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.50543711338799302</v>
+      </c>
+      <c r="F46" s="15">
+        <v>0.172891798228725</v>
+      </c>
+      <c r="G46" s="15">
+        <v>0.71471291866028697</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47">
+        <v>161</v>
+      </c>
+      <c r="C47" s="2">
+        <v>38.172128797978601</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.94837587075723295</v>
+      </c>
+      <c r="F47" s="15">
+        <v>0.20614035087719201</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0.294786096256684</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48">
+        <v>509</v>
+      </c>
+      <c r="C48" s="2">
+        <v>39.7594467547191</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.23433858598066201</v>
+      </c>
+      <c r="F48" s="15">
+        <v>0.296142114211421</v>
+      </c>
+      <c r="G48" s="15">
+        <v>0.41306847215125198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+      <c r="C49" s="2">
+        <v>7.20169183397031</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.31311703625957898</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0.29761904761904701</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0.89999999999999902</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50">
+        <v>83</v>
+      </c>
+      <c r="C50" s="2">
+        <v>78.349118006043199</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="15">
+        <v>0.239898989898989</v>
+      </c>
+      <c r="G50" s="15">
+        <v>0.28030303030303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51">
+        <v>196</v>
+      </c>
+      <c r="C51" s="2">
+        <v>38.0677582790576</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.58266976957741201</v>
+      </c>
+      <c r="F51" s="15">
+        <v>0.25167084377610599</v>
+      </c>
+      <c r="G51" s="15">
+        <v>0.639479905437352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52">
+        <v>21</v>
+      </c>
+      <c r="C52" s="2">
+        <v>23.737960050143599</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1.13037905000683</v>
+      </c>
+      <c r="F52" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G52" s="15">
+        <v>0.13636363636363599</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53">
+        <v>505</v>
+      </c>
+      <c r="C53" s="2">
+        <v>73.904162253149096</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.29268975149762</v>
+      </c>
+      <c r="F53" s="15">
+        <v>0.47673033096953998</v>
+      </c>
+      <c r="G53" s="15">
+        <v>0.731177050797303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <v>627</v>
+      </c>
+      <c r="C54" s="2">
+        <v>21.623760974877701</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.20692594234332801</v>
+      </c>
+      <c r="F54" s="15">
+        <v>0.27689656377504202</v>
+      </c>
+      <c r="G54" s="15">
+        <v>0.50913739439750905</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55">
+        <v>181</v>
+      </c>
+      <c r="C55" s="2">
+        <v>56.4573834092648</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.311919245355054</v>
+      </c>
+      <c r="F55" s="15">
+        <v>0.53723604826546001</v>
+      </c>
+      <c r="G55" s="15">
+        <v>0.271813725490196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56">
+        <v>221</v>
+      </c>
+      <c r="C56" s="2">
+        <v>25.8918057589702</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.70294495273222402</v>
+      </c>
+      <c r="F56" s="15">
+        <v>0.34767759562841499</v>
+      </c>
+      <c r="G56" s="15">
+        <v>0.25901875901875898</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57">
+        <v>52</v>
+      </c>
+      <c r="C57" s="2">
+        <v>83.334802376323907</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3.2051847067816901</v>
+      </c>
+      <c r="F57" s="15">
+        <v>0.39655172413793099</v>
+      </c>
+      <c r="G57" s="15">
+        <v>0.27020202020202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58">
+        <v>1996</v>
+      </c>
+      <c r="C58" s="2">
+        <v>262.11793126968399</v>
+      </c>
+      <c r="D58">
+        <v>95</v>
+      </c>
+      <c r="E58" s="2">
+        <v>12.475552840991901</v>
+      </c>
+      <c r="F58" s="15">
+        <v>0.144863628312495</v>
+      </c>
+      <c r="G58" s="15">
+        <v>0.232280055960735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59">
+        <v>381</v>
+      </c>
+      <c r="C59" s="2">
+        <v>65.436551105602902</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.68699791186984605</v>
+      </c>
+      <c r="F59" s="15">
+        <v>0.35669133518347201</v>
+      </c>
+      <c r="G59" s="15">
+        <v>0.51507383100902304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2">
+        <v>6.6961856852290502</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="15">
+        <v>0.32142857142857101</v>
+      </c>
+      <c r="G60" s="15">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61">
+        <v>24</v>
+      </c>
+      <c r="C61" s="2">
+        <v>41.468037646066797</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="15">
+        <v>0.12700228832951899</v>
+      </c>
+      <c r="G61" s="15">
+        <v>0.12777777777777699</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62">
+        <v>33163</v>
+      </c>
+      <c r="C62" s="2">
+        <v>100.658792874429</v>
+      </c>
+      <c r="D62">
+        <v>415</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1.25963872517227</v>
+      </c>
+      <c r="F62" s="15">
+        <v>0.32084865838932902</v>
+      </c>
+      <c r="G62" s="15">
+        <v>0.58103999181330201</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="69" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>